--- a/Timesheet_a1736227_Peiting Sun.xlsx
+++ b/Timesheet_a1736227_Peiting Sun.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunpe\OneDrive\桌面\project\Team27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{094079C7-DC05-4D22-8298-547481AEE910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E0DD7-7945-4E54-8AD8-AA6527BA1ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="705" windowWidth="15330" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="76">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>----</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>week 11</t>
+  </si>
+  <si>
+    <t>fix fill-in-blank bugs</t>
+  </si>
+  <si>
+    <t>week 12</t>
+  </si>
+  <si>
+    <t>edit poster</t>
+  </si>
+  <si>
+    <t>add button for verifying states</t>
   </si>
 </sst>
 </file>
@@ -448,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -538,14 +556,17 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -890,10 +911,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AY107"/>
+  <dimension ref="A2:AY154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -909,18 +930,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:51" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="3" spans="1:51" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1506,16 +1527,16 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:51" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
@@ -1725,7 +1746,7 @@
       <c r="E26" s="11">
         <v>3</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="33" t="s">
         <v>56</v>
       </c>
       <c r="G26" s="29"/>
@@ -1747,7 +1768,7 @@
       <c r="E27" s="17">
         <v>4</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>57</v>
       </c>
       <c r="G27" s="29"/>
@@ -1772,16 +1793,16 @@
       <c r="J29" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -3168,6 +3189,764 @@
         <v>27</v>
       </c>
       <c r="H107" s="18"/>
+    </row>
+    <row r="110" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+    </row>
+    <row r="111" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D114" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E114" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="F114" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G114" s="11">
+        <v>6</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="10"/>
+      <c r="C115" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D115" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E115" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F115" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G115" s="11">
+        <v>6</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D116" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E116" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="F116" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G116" s="11">
+        <v>4</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D117" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E117" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="F117" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G117" s="11">
+        <v>3</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="20">
+        <v>0</v>
+      </c>
+      <c r="D118" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E118" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F118" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G118" s="11">
+        <v>4</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D119" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="11">
+        <v>1</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D120" s="15">
+        <v>0</v>
+      </c>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="11">
+        <v>2</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D121" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="17">
+        <v>3</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="8">
+        <f>SUM(G114:G121)</f>
+        <v>29</v>
+      </c>
+      <c r="H122" s="18"/>
+    </row>
+    <row r="126" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+    </row>
+    <row r="127" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>27</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D130" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E130" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="F130" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G130" s="11">
+        <v>4</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="10"/>
+      <c r="C131" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D131" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E131" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F131" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G131" s="11">
+        <v>4</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="10"/>
+      <c r="C132" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D132" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E132" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="F132" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G132" s="11">
+        <v>2</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="10"/>
+      <c r="C133" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D133" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E133" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="F133" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G133" s="11">
+        <v>3</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="20">
+        <v>0</v>
+      </c>
+      <c r="D134" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E134" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F134" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G134" s="11">
+        <v>4</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="9"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D135" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="11">
+        <v>1</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" s="10"/>
+      <c r="C136" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D136" s="15">
+        <v>0</v>
+      </c>
+      <c r="E136" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F136" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G136" s="11">
+        <v>4</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="10"/>
+      <c r="C137" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D137" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="17">
+        <v>3</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="8">
+        <f>SUM(G130:G137)</f>
+        <v>25</v>
+      </c>
+      <c r="H138" s="18"/>
+    </row>
+    <row r="142" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+      <c r="E142" s="22"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+    </row>
+    <row r="143" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>27</v>
+      </c>
+      <c r="C144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G145" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="10"/>
+      <c r="C146" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D146" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E146" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="F146" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G146" s="11">
+        <v>5</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="10"/>
+      <c r="C147" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D147" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E147" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F147" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G147" s="11">
+        <v>4</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="10"/>
+      <c r="C148" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D148" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E148" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="F148" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G148" s="11">
+        <v>4</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="C149" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D149" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E149" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F149" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G149" s="11">
+        <v>4</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="20">
+        <v>0</v>
+      </c>
+      <c r="D150" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E150" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F150" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G150" s="11">
+        <v>4</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="9"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="15">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D151" s="15">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="11">
+        <v>1</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="C152" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D152" s="15">
+        <v>0</v>
+      </c>
+      <c r="E152" s="15">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F152" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G152" s="11">
+        <v>4</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B153" s="10"/>
+      <c r="C153" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D153" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="17">
+        <v>3</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="8">
+        <f>SUM(G146:G153)</f>
+        <v>29</v>
+      </c>
+      <c r="H154" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3177,7 +3956,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C99:D99 C100:F102 C104:F106 E103:F103 C86:F92 C85:D85 C69:D69 C70:F73 C75:F77 E74:F74 C51:F61 C35:F43 C19:D27 C6:F11" xr:uid="{B6790EC9-9B1D-4C39-82C2-61973AD7B0AB}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C99:D99 C100:F102 C104:F106 E103:F103 C86:F92 C85:D85 C69:D69 C70:F73 C75:F77 E74:F74 C51:F61 C35:F43 C19:D27 C6:F11 C114:D114 C115:F117 C119:F121 E118:F118 C130:D130 C131:F133 C135:F137 E134:F134 C146:D146 C147:F149 C151:F153 E150:F150" xr:uid="{B6790EC9-9B1D-4C39-82C2-61973AD7B0AB}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>

--- a/Timesheet_a1736227_Peiting Sun.xlsx
+++ b/Timesheet_a1736227_Peiting Sun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunpe\OneDrive\桌面\project\Team27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21E0DD7-7945-4E54-8AD8-AA6527BA1ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0EEA3A-5993-477E-A350-7B6F629D44CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="80">
   <si>
     <t>MCI Project Weekly Time Sheet</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>add button for verifying states</t>
+  </si>
+  <si>
+    <t>week 13</t>
+  </si>
+  <si>
+    <t>prepare final presentation</t>
+  </si>
+  <si>
+    <t>modify final version code</t>
+  </si>
+  <si>
+    <t>prepare final presentation ppt</t>
   </si>
 </sst>
 </file>
@@ -466,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -561,6 +573,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,10 +926,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AY154"/>
+  <dimension ref="A2:AY168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I162" sqref="I162"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -930,18 +945,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:51" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:51" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1527,16 +1542,16 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:51" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
@@ -1793,16 +1808,16 @@
       <c r="J29" s="29"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -3947,6 +3962,210 @@
         <v>29</v>
       </c>
       <c r="H154" s="18"/>
+    </row>
+    <row r="156" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="35"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+    </row>
+    <row r="157" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>27</v>
+      </c>
+      <c r="C158" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="10"/>
+      <c r="C160" s="15">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D160" s="15">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E160" s="20">
+        <v>0.625</v>
+      </c>
+      <c r="F160" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G160" s="11">
+        <v>4</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D161" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E161" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F161" s="16">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G161" s="11">
+        <v>7</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="10"/>
+      <c r="C162" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D162" s="15">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E162" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="F162" s="15">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G162" s="11">
+        <v>4</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="10"/>
+      <c r="C163" s="15">
+        <v>0.375</v>
+      </c>
+      <c r="D163" s="15">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="11">
+        <v>5</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="9"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="9"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="14"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="14"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D168" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="8">
+        <f>SUM(G160:G167)</f>
+        <v>20</v>
+      </c>
+      <c r="H168" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3956,7 +4175,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C99:D99 C100:F102 C104:F106 E103:F103 C86:F92 C85:D85 C69:D69 C70:F73 C75:F77 E74:F74 C51:F61 C35:F43 C19:D27 C6:F11 C114:D114 C115:F117 C119:F121 E118:F118 C130:D130 C131:F133 C135:F137 E134:F134 C146:D146 C147:F149 C151:F153 E150:F150" xr:uid="{B6790EC9-9B1D-4C39-82C2-61973AD7B0AB}">
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Please enter time in military time format between 0:00 and 23:59 (1:00, 8:00, 13:00, 20:00, etc.)." sqref="C99:D99 C100:F102 C104:F106 E103:F103 C86:F92 C85:D85 C69:D69 C70:F73 C75:F77 E74:F74 C51:F61 C35:F43 C19:D27 C6:F11 C114:D114 C115:F117 C119:F121 E118:F118 C130:D130 C131:F133 C135:F137 E134:F134 C146:D146 C147:F149 C151:F153 E150:F150 C160:D160 C161:F163 C165:F167 E164:F164" xr:uid="{B6790EC9-9B1D-4C39-82C2-61973AD7B0AB}">
       <formula1>0</formula1>
       <formula2>0.999305555555556</formula2>
     </dataValidation>
